--- a/data/Flow Type-Group Membership.xlsx
+++ b/data/Flow Type-Group Membership.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showBorderUnselectedTables="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\A249\LUCAS Base Model - Template Dev\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\stsimcbmcfs3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1807D50-F731-434B-846A-D293AD6C823A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9372F39E-BE07-4F1C-A7E2-0014EDF7D240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="4" xr2:uid="{D5FF8767-6E40-483F-B89A-558C105B2AD1}"/>
+    <workbookView xWindow="6825" yWindow="3315" windowWidth="14505" windowHeight="11220" firstSheet="4" activeTab="4" xr2:uid="{D5FF8767-6E40-483F-B89A-558C105B2AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="stsimsf_FlowType" sheetId="3" state="hidden" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="120">
   <si>
     <t>Flow Type</t>
   </si>
@@ -341,6 +341,69 @@
   </si>
   <si>
     <t>Table</t>
+  </si>
+  <si>
+    <t>Emission: Total Rh</t>
+  </si>
+  <si>
+    <t>Net Biome Productivity</t>
+  </si>
+  <si>
+    <t>LULC: Harvest Live</t>
+  </si>
+  <si>
+    <t>LULC: Harvest DOM</t>
+  </si>
+  <si>
+    <t>LULC: Emission Live CO2</t>
+  </si>
+  <si>
+    <t>LULC: Emission Live CO</t>
+  </si>
+  <si>
+    <t>LULC: Emission Live CH4</t>
+  </si>
+  <si>
+    <t>LULC: Emission DOM CO2</t>
+  </si>
+  <si>
+    <t>LULC: Emission DOM CO</t>
+  </si>
+  <si>
+    <t>LULC: Emission DOM CH4</t>
+  </si>
+  <si>
+    <t>Net Ecosystem Productivity</t>
+  </si>
+  <si>
+    <t>Net Primary Productivity</t>
+  </si>
+  <si>
+    <t>Q10 Fast Flows</t>
+  </si>
+  <si>
+    <t>Q10 Slow Flows</t>
+  </si>
+  <si>
+    <t>LULC: Emission Live</t>
+  </si>
+  <si>
+    <t>LULC: Emission DOM</t>
+  </si>
+  <si>
+    <t>LULC: Emission CO2</t>
+  </si>
+  <si>
+    <t>LULC: Emission CO</t>
+  </si>
+  <si>
+    <t>LULC: Emission CH4</t>
+  </si>
+  <si>
+    <t>LULC: Mortality Live</t>
+  </si>
+  <si>
+    <t>LULC: Transfer DOM</t>
   </si>
 </sst>
 </file>
@@ -445,30 +508,6 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFD3D3D3"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFA9A9A9"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFA9A9A9"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -495,6 +534,30 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD3D3D3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFA9A9A9"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFA9A9A9"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -509,14 +572,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A1967B-350A-42A5-81A2-2C2C2CDB1FFB}" name="Table_WorkbookManifest" displayName="Table_WorkbookManifest" ref="A1:E2" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A1967B-350A-42A5-81A2-2C2C2CDB1FFB}" name="Table_WorkbookManifest" displayName="Table_WorkbookManifest" ref="A1:E2" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
   <autoFilter ref="A1:E2" xr:uid="{8FAD2C24-BAC7-4639-BAC1-82C4997502DA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{37189C19-62C1-417B-B715-2954FBC689A6}" name="Name" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{FAD4D991-F8A1-4F9B-A333-4316FD654A72}" name="Display Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{8917458B-65B6-4F43-B67F-7912756B2F43}" name="Reference Type" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{3829019C-1B8F-4026-9007-B50CAE16A251}" name="Data Location" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{A1CD9024-260A-49E0-955E-9FE01E343476}" name="Column Names" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{37189C19-62C1-417B-B715-2954FBC689A6}" name="Name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{FAD4D991-F8A1-4F9B-A333-4316FD654A72}" name="Display Name" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{8917458B-65B6-4F43-B67F-7912756B2F43}" name="Reference Type" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{3829019C-1B8F-4026-9007-B50CAE16A251}" name="Data Location" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{A1CD9024-260A-49E0-955E-9FE01E343476}" name="Column Names" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1724,18 +1787,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE38AB08-8803-4BF4-8EB4-2BC7AA19CE93}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="8" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="8" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1757,6 +1820,9 @@
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1765,6 +1831,9 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1773,6 +1842,9 @@
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1781,6 +1853,9 @@
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -1789,6 +1864,9 @@
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1797,6 +1875,9 @@
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1805,6 +1886,9 @@
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -1813,6 +1897,9 @@
       <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -1821,6 +1908,9 @@
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -1829,6 +1919,9 @@
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -1837,6 +1930,9 @@
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -1845,6 +1941,9 @@
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -1853,6 +1952,9 @@
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -1861,6 +1963,9 @@
       <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -1869,141 +1974,1086 @@
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="8">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="8">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="8">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="8">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B43" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="C62" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B63" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="C63" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B64" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="C64" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="C65" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B66" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="C66" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B75" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C79" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="C90" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B91" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="C91" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B92" s="6" t="s">
         <v>37</v>
+      </c>
+      <c r="C92" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C100" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C110" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C111" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C112" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C113" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C114" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Flow Type-Group Membership.xlsx
+++ b/data/Flow Type-Group Membership.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\stsimcbmcfs3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9372F39E-BE07-4F1C-A7E2-0014EDF7D240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8201D7ED-4EE6-470E-8969-C9CBDE2A5179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="3315" windowWidth="14505" windowHeight="11220" firstSheet="4" activeTab="4" xr2:uid="{D5FF8767-6E40-483F-B89A-558C105B2AD1}"/>
+    <workbookView xWindow="11520" yWindow="1995" windowWidth="14610" windowHeight="11760" firstSheet="4" activeTab="4" xr2:uid="{D5FF8767-6E40-483F-B89A-558C105B2AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="stsimsf_FlowType" sheetId="3" state="hidden" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="126">
   <si>
     <t>Flow Type</t>
   </si>
@@ -404,6 +404,24 @@
   </si>
   <si>
     <t>LULC: Transfer DOM</t>
+  </si>
+  <si>
+    <t>Net Growth Forest: Atmosphere -&gt; Coarse Roots</t>
+  </si>
+  <si>
+    <t>Net Growth Forest: Atmosphere -&gt; Fine Roots</t>
+  </si>
+  <si>
+    <t>Net Growth Forest: Atmosphere -&gt; Foliage</t>
+  </si>
+  <si>
+    <t>Net Growth Forest: Atmosphere -&gt; Merchantable</t>
+  </si>
+  <si>
+    <t>Net Growth Forest: Atmosphere -&gt; Other Wood</t>
+  </si>
+  <si>
+    <t>Net Growth Forest: Total</t>
   </si>
 </sst>
 </file>
@@ -1790,8 +1808,8 @@
   <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62:B66"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2420,7 +2438,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>109</v>
@@ -2431,7 +2449,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>109</v>
@@ -2442,7 +2460,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>109</v>
@@ -2453,7 +2471,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>109</v>
@@ -2464,7 +2482,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>109</v>
@@ -2475,10 +2493,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="C62" s="8">
         <v>1</v>
@@ -2486,10 +2504,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="C63" s="8">
         <v>1</v>
@@ -2497,10 +2515,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="C64" s="8">
         <v>1</v>
@@ -2508,10 +2526,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="C65" s="8">
         <v>1</v>
@@ -2519,10 +2537,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="C66" s="8">
         <v>1</v>
@@ -2530,7 +2548,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>110</v>
@@ -2541,7 +2559,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>110</v>
@@ -2552,7 +2570,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>110</v>
@@ -2563,7 +2581,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>110</v>
@@ -2574,7 +2592,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>110</v>
